--- a/medicine/Soins infirmiers et profession infirmière/1967_en_santé_et_médecine/1967_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1967_en_santé_et_médecine/1967_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1967_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1967_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1967 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1967_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1967_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3 décembre : la première transplantation cardiaque utilisant un cœur humain est réalisé par le professeur Christiaan Barnard en Afrique du Sud[1].
-28 décembre : en France, la loi Neuwirth autorise la vente des produits contraceptifs, mais elle en encadre la publicité, et elle ne sera appliquée qu'à partir de 1972[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3 décembre : la première transplantation cardiaque utilisant un cœur humain est réalisé par le professeur Christiaan Barnard en Afrique du Sud.
+28 décembre : en France, la loi Neuwirth autorise la vente des produits contraceptifs, mais elle en encadre la publicité, et elle ne sera appliquée qu'à partir de 1972.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1967_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1967_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Médaille Copley : Bernard Katz (1911-2003), en reconnaissance de ses contributions pour la connaissance des processus fondamentaux impliqués dans la transmission à travers la jonction neuromusculaire[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Médaille Copley : Bernard Katz (1911-2003), en reconnaissance de ses contributions pour la connaissance des processus fondamentaux impliqués dans la transmission à travers la jonction neuromusculaire.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1967_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1967_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>9 juillet : Eugen Fischer (né en 1874), médecin, généticien, anthropologue et universitaire allemand.
 5 décembre : Dave Elman (en) (né en 1900), acteur, compositeur et hypnothérapeute américain.</t>
